--- a/Mifos Automation Excels/Client/4665-DISB01JAN2015-RESCHDULE01FEB2015-EXTN-REPAYMENTPRD-NUMBER-OF-REPAYMENT-3-Repayon01FFEB2015-AGAINRESCHDULE-NUMBER-OF-REPAYMENT-3.xlsx
+++ b/Mifos Automation Excels/Client/4665-DISB01JAN2015-RESCHDULE01FEB2015-EXTN-REPAYMENTPRD-NUMBER-OF-REPAYMENT-3-Repayon01FFEB2015-AGAINRESCHDULE-NUMBER-OF-REPAYMENT-3.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -1019,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1031,7 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
@@ -1069,15 +1069,16 @@
       <c r="M1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13">
@@ -1104,8 +1105,9 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1143,15 +1145,16 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1187,15 +1190,16 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1231,15 +1235,16 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1275,15 +1280,16 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1319,15 +1325,16 @@
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1363,15 +1370,16 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1407,15 +1415,16 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1451,15 +1460,16 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1495,15 +1505,16 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1539,15 +1550,16 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1583,15 +1595,16 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1627,15 +1640,16 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1671,15 +1685,16 @@
       <c r="M15" s="12">
         <v>0</v>
       </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1715,15 +1730,16 @@
       <c r="M16" s="12">
         <v>0</v>
       </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1759,15 +1775,16 @@
       <c r="M17" s="12">
         <v>0</v>
       </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -1803,15 +1820,16 @@
       <c r="M18" s="12">
         <v>0</v>
       </c>
-      <c r="N18" s="12">
-        <v>0</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -1847,15 +1865,16 @@
       <c r="M19" s="12">
         <v>0</v>
       </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12">
-        <v>602.66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12">
+        <v>602.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -1891,11 +1910,12 @@
       <c r="M20" s="12">
         <v>0</v>
       </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12">
+      <c r="N20" s="12"/>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12">
         <v>602.69000000000005</v>
       </c>
     </row>
